--- a/biology/Microbiologie/Erginobacteria/Erginobacteria.xlsx
+++ b/biology/Microbiologie/Erginobacteria/Erginobacteria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les "Candidatus Erginobacteria" forment une classe de bactéries du phylum candidat du règne des Bacteria.
 </t>
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette classe est proposée en 2022 par T. J. Williams sous le nom de "candidatus Erginobacteria" pour contenir les bactéries non cultivables des deux genres "candidatus Erginobacter" et "candidatus Euphemobacter" identifiées dans le Lac Ace qui est un Lac méromictique d'origine marine de 25 m de profondeur situé dans les Collines de Vestfold de l'Antarctique de l'Est[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette classe est proposée en 2022 par T. J. Williams sous le nom de "candidatus Erginobacteria" pour contenir les bactéries non cultivables des deux genres "candidatus Erginobacter" et "candidatus Euphemobacter" identifiées dans le Lac Ace qui est un Lac méromictique d'origine marine de 25 m de profondeur situé dans les Collines de Vestfold de l'Antarctique de l'Est.
 </t>
         </is>
       </c>
@@ -542,15 +556,87 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de candidatus Erginobacteria" a été publié de manière non valide et ce nouveau nom est considéré comme le nom préféré et non pas le nom correct[2].
-Étymologie
-L'étymologie du nom de la classe Erginobacteria est la suivante : N.L. neut. pl. n. Erginobacteria, la classe des Erginobacterales[2].
-Liste des ordres
-Selon la base de nomenclature LPSN  (15/08/2023)[3], cette classe ne contient qu'un ordre candidat:
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de candidatus Erginobacteria" a été publié de manière non valide et ce nouveau nom est considéré comme le nom préféré et non pas le nom correct.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Erginobacteria</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erginobacteria</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie du nom de la classe Erginobacteria est la suivante : N.L. neut. pl. n. Erginobacteria, la classe des Erginobacterales.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Erginobacteria</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erginobacteria</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des ordres</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon la base de nomenclature LPSN  (15/08/2023), cette classe ne contient qu'un ordre candidat:
 "Candidatus Erginobacterales" Williams et al. 2022 nom préféré (nom non correct)
-Un deuxième ordre potentiel est formé par le taxon de métagénome «SURF-CP-2 PUNC01»[4].
+Un deuxième ordre potentiel est formé par le taxon de métagénome «SURF-CP-2 PUNC01».
 </t>
         </is>
       </c>
